--- a/src/BookStore/BookStore.xlsx
+++ b/src/BookStore/BookStore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TrangThai" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Nhà cung câp 1</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Kích thước</t>
+  </si>
+  <si>
+    <t>HangHoa</t>
   </si>
 </sst>
 </file>
@@ -612,31 +615,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/src/BookStore/BookStore.xlsx
+++ b/src/BookStore/BookStore.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TrangThai" sheetId="3" r:id="rId1"/>
-    <sheet name="LoaiHangHoa" sheetId="5" r:id="rId2"/>
-    <sheet name="NhaCungCap" sheetId="1" r:id="rId3"/>
-    <sheet name="NhanHieu" sheetId="2" r:id="rId4"/>
-    <sheet name="HangHoa" sheetId="4" r:id="rId5"/>
-    <sheet name="ThuocTinhHangHoa" sheetId="6" r:id="rId6"/>
+    <sheet name="LoaiPhieu" sheetId="7" r:id="rId2"/>
+    <sheet name="LoaiHangHoa" sheetId="5" r:id="rId3"/>
+    <sheet name="NhaCungCap" sheetId="1" r:id="rId4"/>
+    <sheet name="NhanHieu" sheetId="2" r:id="rId5"/>
+    <sheet name="HangHoa" sheetId="4" r:id="rId6"/>
+    <sheet name="ThuocTinhHangHoa" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>Nhà cung câp 1</t>
   </si>
@@ -212,12 +213,6 @@
     <t>Đang sử dụng</t>
   </si>
   <si>
-    <t>USE</t>
-  </si>
-  <si>
-    <t>NOTUSE</t>
-  </si>
-  <si>
     <t>Sách</t>
   </si>
   <si>
@@ -297,6 +292,45 @@
   </si>
   <si>
     <t>HangHoa</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>NotUse</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>PhieuNhapHang</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>PaidRecived</t>
+  </si>
+  <si>
+    <t>Recived</t>
+  </si>
+  <si>
+    <t>Đã nhận hàng</t>
+  </si>
+  <si>
+    <t>Chờ thanh toán</t>
+  </si>
+  <si>
+    <t>Đã thanh toán và nhận hàng</t>
+  </si>
+  <si>
+    <t>Phiếu chi nhập hàng</t>
+  </si>
+  <si>
+    <t>PCNH</t>
   </si>
 </sst>
 </file>
@@ -332,14 +366,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -615,38 +666,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D2"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +754,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,25 +793,28 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,12 +1068,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
@@ -1160,7 +1287,7 @@
         <v>42370</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -1198,7 +1325,7 @@
         <v>42371</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1236,7 +1363,7 @@
         <v>42372</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1274,7 +1401,7 @@
         <v>42373</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1312,7 +1439,7 @@
         <v>42374</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1350,7 +1477,7 @@
         <v>42375</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1388,7 +1515,7 @@
         <v>42376</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1426,7 +1553,7 @@
         <v>42377</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1464,7 +1591,7 @@
         <v>42378</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1502,7 +1629,7 @@
         <v>42379</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1540,7 +1667,7 @@
         <v>42380</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1578,7 +1705,7 @@
         <v>42381</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1616,7 +1743,7 @@
         <v>42382</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1654,7 +1781,7 @@
         <v>42383</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1692,7 +1819,7 @@
         <v>42384</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1730,7 +1857,7 @@
         <v>42385</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1768,7 +1895,7 @@
         <v>42386</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1806,7 +1933,7 @@
         <v>42387</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1844,7 +1971,7 @@
         <v>42388</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1882,7 +2009,7 @@
         <v>42389</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1920,12 +2047,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -1947,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -1955,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1963,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
